--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ADC78AA-FED4-43C3-8BE9-D34BC1CFACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8DBB62-BF0F-4807-916E-0F49450B4D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B929095-D0E4-4C79-BE2B-D0A35B94DBF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF75A175-0148-4283-A396-18B28B53C94E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="138">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -113,19 +113,19 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -134,67 +134,73 @@
     <t>1,49%</t>
   </si>
   <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -203,12 +209,6 @@
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
@@ -251,12 +251,6 @@
     <t>98,44%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
@@ -290,94 +284,88 @@
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -389,7 +377,7 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,7%</t>
   </si>
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
@@ -410,79 +398,61 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,03%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
   </si>
 </sst>
 </file>
@@ -894,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAD03D9-8D52-4833-BCE2-788F0B929B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180896B2-995B-4631-A15F-3CB8F2CE4473}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1925,13 +1895,13 @@
         <v>24088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -1940,13 +1910,13 @@
         <v>24088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1944,13 @@
         <v>3353252</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>3270</v>
@@ -1989,13 +1959,13 @@
         <v>3353252</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2019,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20840F4E-2461-40FB-9A69-0E829D102C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E35FB4-C986-455B-80BE-3B08385A69A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,7 +2058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2214,7 +2184,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2229,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,7 +2230,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2275,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2810,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2825,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +2826,7 @@
         <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2871,7 +2841,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -2953,13 +2923,13 @@
         <v>1062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2968,13 +2938,13 @@
         <v>1062</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +2972,10 @@
         <v>732603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3017,10 +2987,10 @@
         <v>732603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3102,13 +3072,13 @@
         <v>21690</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3117,13 +3087,13 @@
         <v>21690</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3121,13 @@
         <v>3514246</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M23" s="7">
         <v>3258</v>
@@ -3166,13 +3136,13 @@
         <v>3514246</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3196,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3248,7 +3218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9989313-48DC-4E6B-AECD-A82E4B8D60EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B3431-83CF-4666-8F8B-07E1B7D95812}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3265,7 +3235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3391,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3406,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3452,7 +3422,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3534,13 +3504,13 @@
         <v>2721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3549,13 +3519,13 @@
         <v>2721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3553,13 @@
         <v>560823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -3598,13 +3568,13 @@
         <v>560823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3653,13 @@
         <v>1060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3698,13 +3668,13 @@
         <v>1060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,10 +3702,10 @@
         <v>660326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3747,10 +3717,10 @@
         <v>660326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3832,13 +3802,13 @@
         <v>5092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3847,13 +3817,13 @@
         <v>5092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3851,13 @@
         <v>643985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -3896,13 +3866,13 @@
         <v>643985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3951,13 @@
         <v>4537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3996,13 +3966,13 @@
         <v>4537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4000,13 @@
         <v>492312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -4045,13 +4015,13 @@
         <v>492312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4100,13 @@
         <v>4679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4145,13 +4115,13 @@
         <v>4679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,10 +4149,10 @@
         <v>773252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>63</v>
@@ -4194,10 +4164,10 @@
         <v>773252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>63</v>
@@ -4279,13 +4249,13 @@
         <v>18088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4294,13 +4264,13 @@
         <v>18088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4298,13 @@
         <v>3526454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>3321</v>
@@ -4343,13 +4313,13 @@
         <v>3526454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4373,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26E6D55-A793-409D-9B23-9485DAF82087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB71A0CF-D7F8-456B-8899-77CEF31EE0ED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4442,7 +4412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4568,7 +4538,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4583,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4584,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4629,7 +4599,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4711,13 +4681,13 @@
         <v>160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4726,13 +4696,13 @@
         <v>160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,10 +4730,10 @@
         <v>498257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4775,10 +4745,10 @@
         <v>498257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4860,13 +4830,13 @@
         <v>1654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4875,13 +4845,13 @@
         <v>1654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,10 +4879,10 @@
         <v>581024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4924,10 +4894,10 @@
         <v>581024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -5009,13 +4979,13 @@
         <v>8526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -5024,13 +4994,13 @@
         <v>8526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5028,13 @@
         <v>736588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -5073,13 +5043,13 @@
         <v>736588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5128,13 @@
         <v>3896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5173,13 +5143,13 @@
         <v>3896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5177,13 @@
         <v>589680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -5222,13 +5192,13 @@
         <v>589680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5277,13 @@
         <v>2753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5322,13 +5292,13 @@
         <v>2753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5326,13 @@
         <v>1022227</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1701</v>
@@ -5371,13 +5341,13 @@
         <v>1022227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5426,13 @@
         <v>16989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -5471,13 +5441,13 @@
         <v>16989</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5475,13 @@
         <v>3782733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>5327</v>
@@ -5520,13 +5490,13 @@
         <v>3782733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5550,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8DBB62-BF0F-4807-916E-0F49450B4D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{066EA058-DE33-4587-B97E-9A1CDC7B3779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF75A175-0148-4283-A396-18B28B53C94E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B07955D4-EC1B-4ECC-B3AA-24D83106285D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="130">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -113,102 +113,102 @@
     <t>1,04%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
@@ -221,121 +221,109 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,27%</t>
+    <t>99,13%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -347,37 +335,25 @@
     <t>97,94%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>99,78%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
   </si>
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
@@ -864,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180896B2-995B-4631-A15F-3CB8F2CE4473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74119C-E9FA-4EF6-A298-4E4037B2354A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1767,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1768,13 @@
         <v>659</v>
       </c>
       <c r="I20" s="7">
-        <v>674566</v>
+        <v>674567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1807,13 +1783,13 @@
         <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>674566</v>
+        <v>674567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -1841,7 +1817,7 @@
         <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>675978</v>
+        <v>675979</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -1856,7 +1832,7 @@
         <v>660</v>
       </c>
       <c r="N21" s="7">
-        <v>675978</v>
+        <v>675979</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -1895,13 +1871,13 @@
         <v>24088</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -1910,13 +1886,13 @@
         <v>24088</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1920,13 @@
         <v>3353252</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>3270</v>
@@ -1959,13 +1935,13 @@
         <v>3353252</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +1995,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E35FB4-C986-455B-80BE-3B08385A69A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4A7397-0AFE-405A-9128-56927CB5567F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2058,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2184,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2199,7 +2175,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,7 +2206,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2245,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2625,13 +2601,13 @@
         <v>16820</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2640,13 +2616,13 @@
         <v>16820</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2650,13 @@
         <v>596187</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -2689,13 +2665,13 @@
         <v>596187</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2795,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2799,10 @@
         <v>445851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2838,10 +2814,10 @@
         <v>445851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3196,7 +3172,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B3431-83CF-4666-8F8B-07E1B7D95812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C64BDDF-8672-4222-ACB3-0D2DF537BE72}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3376,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3383,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3422,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3504,13 +3480,13 @@
         <v>2721</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3519,13 +3495,13 @@
         <v>2721</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3529,13 @@
         <v>560823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -3568,13 +3544,13 @@
         <v>560823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3629,13 @@
         <v>1060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3668,13 +3644,13 @@
         <v>1060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,10 +3678,10 @@
         <v>660326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3717,10 +3693,10 @@
         <v>660326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3802,13 +3778,13 @@
         <v>5092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3817,13 +3793,13 @@
         <v>5092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3827,13 @@
         <v>643985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -3866,13 +3842,13 @@
         <v>643985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3927,13 @@
         <v>4537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3966,13 +3942,13 @@
         <v>4537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3976,13 @@
         <v>492312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -4015,13 +3991,13 @@
         <v>492312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4076,13 @@
         <v>4679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4115,13 +4091,13 @@
         <v>4679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4125,13 @@
         <v>773252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
@@ -4164,13 +4140,13 @@
         <v>773252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4225,13 @@
         <v>18088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4264,13 +4240,13 @@
         <v>18088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4274,13 @@
         <v>3526454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M23" s="7">
         <v>3321</v>
@@ -4313,13 +4289,13 @@
         <v>3526454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4349,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4395,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB71A0CF-D7F8-456B-8899-77CEF31EE0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941167AB-0C38-4093-89DB-0BF7D4E714E2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4412,7 +4388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4538,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4553,7 +4529,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4560,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4599,7 +4575,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4681,13 +4657,13 @@
         <v>160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4696,13 +4672,13 @@
         <v>160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,10 +4706,10 @@
         <v>498257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4745,10 +4721,10 @@
         <v>498257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4830,13 +4806,13 @@
         <v>1654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4845,13 +4821,13 @@
         <v>1654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,10 +4855,10 @@
         <v>581024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4894,10 +4870,10 @@
         <v>581024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -4979,13 +4955,13 @@
         <v>8526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4994,13 +4970,13 @@
         <v>8526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,10 +5004,10 @@
         <v>736588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>77</v>
@@ -5043,10 +5019,10 @@
         <v>736588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>77</v>
@@ -5128,13 +5104,13 @@
         <v>3896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5143,13 +5119,13 @@
         <v>3896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5153,13 @@
         <v>589680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -5192,13 +5168,13 @@
         <v>589680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5253,13 @@
         <v>2753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5292,13 +5268,13 @@
         <v>2753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5302,13 @@
         <v>1022227</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1701</v>
@@ -5341,13 +5317,13 @@
         <v>1022227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5402,13 @@
         <v>16989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -5441,13 +5417,13 @@
         <v>16989</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5451,13 @@
         <v>3782733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M23" s="7">
         <v>5327</v>
@@ -5490,13 +5466,13 @@
         <v>3782733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5526,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066EA058-DE33-4587-B97E-9A1CDC7B3779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9629CE94-29E9-41EE-839A-74D219C49E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B07955D4-EC1B-4ECC-B3AA-24D83106285D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E730222-D8A4-4827-A405-FAD2C030B82D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="148">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -113,322 +113,376 @@
     <t>1,04%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>99,39%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74119C-E9FA-4EF6-A298-4E4037B2354A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB0BF2-8243-4E3D-BA97-75A288C6497A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1743,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1822,13 @@
         <v>659</v>
       </c>
       <c r="I20" s="7">
-        <v>674567</v>
+        <v>674566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1783,13 +1837,13 @@
         <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>674567</v>
+        <v>674566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -1817,7 +1871,7 @@
         <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>675979</v>
+        <v>675978</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -1832,7 +1886,7 @@
         <v>660</v>
       </c>
       <c r="N21" s="7">
-        <v>675979</v>
+        <v>675978</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -1871,13 +1925,13 @@
         <v>24088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -1886,13 +1940,13 @@
         <v>24088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,7 +1974,7 @@
         <v>3353252</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>50</v>
@@ -1935,7 +1989,7 @@
         <v>3353252</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>50</v>
@@ -2017,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4A7397-0AFE-405A-9128-56927CB5567F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B88E5AC-CB03-42F1-9F16-FFB2067967A2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,13 +2655,13 @@
         <v>16820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2616,13 +2670,13 @@
         <v>16820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2704,13 @@
         <v>596187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -2665,13 +2719,13 @@
         <v>596187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2771,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,10 +2853,10 @@
         <v>445851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2814,10 +2868,10 @@
         <v>445851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -2899,13 +2953,13 @@
         <v>1062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2914,13 +2968,13 @@
         <v>1062</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +3002,10 @@
         <v>732603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -2963,10 +3017,10 @@
         <v>732603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3048,13 +3102,13 @@
         <v>21690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3063,13 +3117,13 @@
         <v>21690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3151,13 @@
         <v>3514246</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M23" s="7">
         <v>3258</v>
@@ -3112,13 +3166,13 @@
         <v>3514246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C64BDDF-8672-4222-ACB3-0D2DF537BE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DABF534-A469-423F-9EA1-966F909BF7FE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3211,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3337,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3352,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3398,7 +3452,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3480,13 +3534,13 @@
         <v>2721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3495,13 +3549,13 @@
         <v>2721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3583,13 @@
         <v>560823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -3544,13 +3598,13 @@
         <v>560823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3683,13 @@
         <v>1060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3644,13 +3698,13 @@
         <v>1060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,10 +3732,10 @@
         <v>660326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3693,10 +3747,10 @@
         <v>660326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3778,13 +3832,13 @@
         <v>5092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3793,13 +3847,13 @@
         <v>5092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3881,13 @@
         <v>643985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -3842,13 +3896,13 @@
         <v>643985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3981,13 @@
         <v>4537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3942,13 +3996,13 @@
         <v>4537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4030,13 @@
         <v>492312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -3991,13 +4045,13 @@
         <v>492312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4130,13 @@
         <v>4679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4091,13 +4145,13 @@
         <v>4679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4179,13 @@
         <v>773252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>651</v>
@@ -4140,13 +4194,13 @@
         <v>773252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4279,13 @@
         <v>18088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4240,13 +4294,13 @@
         <v>18088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4328,13 @@
         <v>3526454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>3321</v>
@@ -4289,13 +4343,13 @@
         <v>3526454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941167AB-0C38-4093-89DB-0BF7D4E714E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A3EB95-1E26-4A26-8CBD-0675DC7D06D7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4388,7 +4442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4514,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4529,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4614,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4575,7 +4629,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4657,13 +4711,13 @@
         <v>160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4672,13 +4726,13 @@
         <v>160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,10 +4760,10 @@
         <v>498257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4721,10 +4775,10 @@
         <v>498257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4806,13 +4860,13 @@
         <v>1654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4821,13 +4875,13 @@
         <v>1654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,10 +4909,10 @@
         <v>581024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4870,10 +4924,10 @@
         <v>581024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -4955,13 +5009,13 @@
         <v>8526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4970,13 +5024,13 @@
         <v>8526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5058,13 @@
         <v>736588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -5019,13 +5073,13 @@
         <v>736588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5158,13 @@
         <v>3896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5119,13 +5173,13 @@
         <v>3896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5207,13 @@
         <v>589680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -5168,13 +5222,13 @@
         <v>589680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5307,13 @@
         <v>2753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5268,13 +5322,13 @@
         <v>2753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5356,13 @@
         <v>1022227</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1701</v>
@@ -5317,13 +5371,13 @@
         <v>1022227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5456,13 @@
         <v>16989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -5417,13 +5471,13 @@
         <v>16989</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5505,13 @@
         <v>3782733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>5327</v>
@@ -5466,13 +5520,13 @@
         <v>3782733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9629CE94-29E9-41EE-839A-74D219C49E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64590F4-1EBB-4042-97BB-4E457C10C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E730222-D8A4-4827-A405-FAD2C030B82D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{050EC7F3-210B-49E0-BC58-00E81A15864B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="155">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,7 +98,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -107,7 +107,7 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -128,7 +128,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -149,7 +149,7 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -170,103 +170,124 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -362,16 +383,28 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -407,82 +440,70 @@
     <t>99,97%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
   </si>
 </sst>
 </file>
@@ -894,8 +915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB0BF2-8243-4E3D-BA97-75A288C6497A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A6D277-57CD-4474-B1B5-2BC39122DC44}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1770,34 +1791,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1412</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1412</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,34 +1840,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>659</v>
+        <v>370</v>
       </c>
       <c r="I20" s="7">
-        <v>674566</v>
+        <v>342070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="7">
+        <v>370</v>
+      </c>
+      <c r="N20" s="7">
+        <v>342070</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="7">
-        <v>659</v>
-      </c>
-      <c r="N20" s="7">
-        <v>674566</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,10 +1889,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>675978</v>
+        <v>342070</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -1883,10 +1904,10 @@
         <v>18</v>
       </c>
       <c r="M21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="N21" s="7">
-        <v>675978</v>
+        <v>342070</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -1900,7 +1921,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1919,34 +1940,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>24088</v>
+        <v>1412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="M22" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>24088</v>
+        <v>1412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,34 +1989,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3270</v>
+        <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>3353252</v>
+        <v>332496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>3270</v>
+        <v>289</v>
       </c>
       <c r="N23" s="7">
-        <v>3353252</v>
+        <v>332496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,48 +2038,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="7">
+        <v>290</v>
+      </c>
+      <c r="N24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>24</v>
+      </c>
+      <c r="I25" s="7">
+        <v>24088</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="7">
+        <v>24</v>
+      </c>
+      <c r="N25" s="7">
+        <v>24088</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3270</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3353251</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3270</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3353251</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3377339</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="7">
         <v>3294</v>
       </c>
-      <c r="N24" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
+      <c r="N27" s="7">
+        <v>3377339</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2071,8 +2242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B88E5AC-CB03-42F1-9F16-FFB2067967A2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62F6323-AA4D-4781-9653-3FFCA8188DFB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2088,7 +2259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2214,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2229,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2275,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2363,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2378,7 +2549,7 @@
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2424,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2506,13 +2677,13 @@
         <v>2852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2521,13 +2692,13 @@
         <v>2852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2726,13 @@
         <v>703083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -2570,13 +2741,13 @@
         <v>703083</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2826,13 @@
         <v>16820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2670,13 +2841,13 @@
         <v>16820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2875,13 @@
         <v>596187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -2719,13 +2890,13 @@
         <v>596187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2975,13 @@
         <v>956</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2819,13 +2990,13 @@
         <v>956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,10 +3024,10 @@
         <v>445851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2868,10 +3039,10 @@
         <v>445851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -2953,13 +3124,13 @@
         <v>1062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2968,13 +3139,13 @@
         <v>1062</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,31 +3167,31 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>684</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>732603</v>
+        <v>348990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="7">
-        <v>684</v>
+        <v>339</v>
       </c>
       <c r="N20" s="7">
-        <v>732603</v>
+        <v>348990</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3045,10 +3216,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>685</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>733665</v>
+        <v>350052</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -3060,10 +3231,10 @@
         <v>18</v>
       </c>
       <c r="M21" s="7">
-        <v>685</v>
+        <v>340</v>
       </c>
       <c r="N21" s="7">
-        <v>733665</v>
+        <v>350052</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -3077,7 +3248,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3096,34 +3267,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>21690</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>21690</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,34 +3316,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3258</v>
+        <v>345</v>
       </c>
       <c r="I23" s="7">
-        <v>3514246</v>
+        <v>383613</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="M23" s="7">
-        <v>3258</v>
+        <v>345</v>
       </c>
       <c r="N23" s="7">
-        <v>3514246</v>
+        <v>383613</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,48 +3365,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>383613</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>383613</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7">
+        <v>21690</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="7">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
+        <v>21690</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3258</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3514246</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3258</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3514246</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3277</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3535936</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="7">
         <v>3277</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3535936</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3248,8 +3569,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DABF534-A469-423F-9EA1-966F909BF7FE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4651AB5C-BF9E-4258-AF19-B6A303C2BDCB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3265,7 +3586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3391,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3406,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -3452,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3534,13 +3855,13 @@
         <v>2721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3549,13 +3870,13 @@
         <v>2721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3904,13 @@
         <v>560823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -3598,13 +3919,13 @@
         <v>560823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +4004,13 @@
         <v>1060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3698,13 +4019,13 @@
         <v>1060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,10 +4053,10 @@
         <v>660326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3747,10 +4068,10 @@
         <v>660326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3832,13 +4153,13 @@
         <v>5092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3847,13 +4168,13 @@
         <v>5092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +4202,13 @@
         <v>643985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -3896,13 +4217,13 @@
         <v>643985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +4302,13 @@
         <v>4537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3996,13 +4317,13 @@
         <v>4537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4351,13 @@
         <v>492312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -4045,13 +4366,13 @@
         <v>492312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,34 +4445,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>4679</v>
+        <v>2034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>4679</v>
+        <v>2034</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,34 +4494,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>651</v>
+        <v>352</v>
       </c>
       <c r="I20" s="7">
-        <v>773252</v>
+        <v>375728</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
-        <v>651</v>
+        <v>352</v>
       </c>
       <c r="N20" s="7">
-        <v>773252</v>
+        <v>375728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,10 +4543,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -4237,10 +4558,10 @@
         <v>18</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -4254,7 +4575,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4273,34 +4594,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>18088</v>
+        <v>2645</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>18088</v>
+        <v>2645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,34 +4643,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3321</v>
+        <v>299</v>
       </c>
       <c r="I23" s="7">
-        <v>3526454</v>
+        <v>397524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>3321</v>
+        <v>299</v>
       </c>
       <c r="N23" s="7">
-        <v>3526454</v>
+        <v>397524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,48 +4692,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="7">
+        <v>301</v>
+      </c>
+      <c r="N24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>18088</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7">
+        <v>17</v>
+      </c>
+      <c r="N25" s="7">
+        <v>18088</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3526454</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3321</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3526454</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="7">
         <v>3338</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3544542</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4425,8 +4896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A3EB95-1E26-4A26-8CBD-0675DC7D06D7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5489A1D7-10E8-4327-B940-3724937EE641}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4442,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4568,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4583,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +5079,13 @@
         <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4623,13 +5094,13 @@
         <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4657,7 +5128,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>18</v>
@@ -4672,7 +5143,7 @@
         <v>207</v>
       </c>
       <c r="N6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -4708,31 +5179,31 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +5228,13 @@
         <v>458</v>
       </c>
       <c r="I8" s="7">
-        <v>498257</v>
+        <v>511180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4772,13 +5243,13 @@
         <v>458</v>
       </c>
       <c r="N8" s="7">
-        <v>498257</v>
+        <v>511180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4806,7 +5277,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>498417</v>
+        <v>511341</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -4821,7 +5292,7 @@
         <v>459</v>
       </c>
       <c r="N9" s="7">
-        <v>498417</v>
+        <v>511341</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -4857,31 +5328,31 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1654</v>
+        <v>1468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1654</v>
+        <v>1468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +5377,13 @@
         <v>843</v>
       </c>
       <c r="I11" s="7">
-        <v>581024</v>
+        <v>540232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4921,13 +5392,13 @@
         <v>843</v>
       </c>
       <c r="N11" s="7">
-        <v>581024</v>
+        <v>540232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -4955,7 +5426,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582678</v>
+        <v>541700</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -4970,7 +5441,7 @@
         <v>845</v>
       </c>
       <c r="N12" s="7">
-        <v>582678</v>
+        <v>541700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -5006,31 +5477,31 @@
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>8526</v>
+        <v>7819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>8526</v>
+        <v>7819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,31 +5526,31 @@
         <v>1124</v>
       </c>
       <c r="I14" s="7">
-        <v>736588</v>
+        <v>703062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
       </c>
       <c r="N14" s="7">
-        <v>736588</v>
+        <v>703062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5575,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745114</v>
+        <v>710881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -5119,7 +5590,7 @@
         <v>1138</v>
       </c>
       <c r="N15" s="7">
-        <v>745114</v>
+        <v>710881</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -5155,31 +5626,31 @@
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3896</v>
+        <v>3617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>3896</v>
+        <v>3617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,31 +5675,31 @@
         <v>994</v>
       </c>
       <c r="I17" s="7">
-        <v>589680</v>
+        <v>541270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
       </c>
       <c r="N17" s="7">
-        <v>589680</v>
+        <v>541270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,7 +5724,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -5268,7 +5739,7 @@
         <v>1000</v>
       </c>
       <c r="N18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -5301,34 +5772,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>2753</v>
+        <v>950</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2753</v>
+        <v>950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,34 +5821,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>1701</v>
+        <v>824</v>
       </c>
       <c r="I20" s="7">
-        <v>1022227</v>
+        <v>607060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
-        <v>1701</v>
+        <v>824</v>
       </c>
       <c r="N20" s="7">
-        <v>1022227</v>
+        <v>607060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,10 +5870,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024980</v>
+        <v>608010</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>18</v>
@@ -5414,10 +5885,10 @@
         <v>18</v>
       </c>
       <c r="M21" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="N21" s="7">
-        <v>1024980</v>
+        <v>608010</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -5431,7 +5902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5450,34 +5921,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>16989</v>
+        <v>1436</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>16989</v>
+        <v>1436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,34 +5970,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>5327</v>
+        <v>877</v>
       </c>
       <c r="I23" s="7">
-        <v>3782733</v>
+        <v>423289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>5327</v>
+        <v>877</v>
       </c>
       <c r="N23" s="7">
-        <v>3782733</v>
+        <v>423289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,48 +6019,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="7">
+        <v>879</v>
+      </c>
+      <c r="N24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>27</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15451</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="7">
+        <v>27</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15451</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5327</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3639294</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5327</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3639294</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799722</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654745</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="7">
         <v>5354</v>
       </c>
-      <c r="N24" s="7">
-        <v>3799722</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
+      <c r="N27" s="7">
+        <v>3654745</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
